--- a/DaySale_2025-05-22_20-56.xlsx
+++ b/DaySale_2025-05-22_20-56.xlsx
@@ -314,6 +314,15 @@
     <t>FASTEL 120MG 20 TAB</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>FROST TOPICAL SPRAY 100 ML</t>
   </si>
   <si>
@@ -507,9 +516,6 @@
   </si>
   <si>
     <t>9:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
   </si>
   <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
@@ -1249,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45799.872396997656</v>
+        <v>45799.872503305574</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -1258,7 +1264,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45799.872396997656</v>
+        <v>45799.872503305574</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -2383,7 +2389,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2391,7 +2397,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L47" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="M47" s="11">
         <v>14</v>
@@ -2402,7 +2408,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B48" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2410,7 +2416,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2418,7 +2424,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L48" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="M48" s="11">
         <v>14</v>
@@ -2429,7 +2435,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B49" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2437,7 +2443,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2445,7 +2451,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L49" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="M49" s="11">
         <v>14</v>
@@ -2456,7 +2462,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B50" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2472,7 +2478,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L50" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="M50" s="11">
         <v>14</v>
@@ -2483,7 +2489,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B51" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2491,7 +2497,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2499,10 +2505,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L51" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="M51" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2510,7 +2516,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B52" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2518,7 +2524,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2526,10 +2532,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L52" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="M52" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2537,7 +2543,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B53" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2545,7 +2551,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2553,7 +2559,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L53" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="M53" s="11">
         <v>14</v>
@@ -2564,7 +2570,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B54" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2572,7 +2578,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2580,7 +2586,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L54" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="M54" s="11">
         <v>14</v>
@@ -2591,7 +2597,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B55" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -2604,10 +2610,10 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c t="s" r="K55" s="10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c t="s" r="L55" s="8">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c t="s" r="M55" s="11">
         <v>14</v>
@@ -2618,7 +2624,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B56" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -2626,15 +2632,15 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c t="s" r="K56" s="10">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c t="s" r="L56" s="8">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c t="s" r="M56" s="11">
         <v>14</v>
@@ -2645,7 +2651,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B57" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -2658,10 +2664,10 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c t="s" r="K57" s="10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c t="s" r="L57" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="M57" s="11">
         <v>14</v>
@@ -2672,7 +2678,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B58" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2680,18 +2686,18 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c t="s" r="K58" s="10">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c t="s" r="L58" s="8">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c t="s" r="M58" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2699,7 +2705,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B59" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2707,7 +2713,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2715,10 +2721,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L59" s="8">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c t="s" r="M59" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2726,7 +2732,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B60" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -2734,18 +2740,18 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c t="s" r="K60" s="10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c t="s" r="L60" s="8">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c t="s" r="M60" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2753,7 +2759,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B61" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2766,13 +2772,13 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c t="s" r="K61" s="10">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c t="s" r="L61" s="8">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c t="s" r="M61" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2780,7 +2786,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B62" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -2788,7 +2794,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2796,10 +2802,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L62" s="8">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c t="s" r="M62" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -2807,7 +2813,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B63" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -2815,7 +2821,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -2823,7 +2829,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L63" s="8">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c t="s" r="M63" s="11">
         <v>16</v>
@@ -2834,7 +2840,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B64" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -2850,7 +2856,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L64" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="M64" s="11">
         <v>16</v>
@@ -2861,7 +2867,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B65" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -2869,7 +2875,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -2877,10 +2883,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L65" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="M65" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -2888,7 +2894,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B66" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -2896,7 +2902,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -2904,7 +2910,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L66" s="8">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c t="s" r="M66" s="11">
         <v>14</v>
@@ -2915,7 +2921,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B67" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -2923,15 +2929,15 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c t="s" r="K67" s="10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c t="s" r="L67" s="8">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c t="s" r="M67" s="11">
         <v>14</v>
@@ -2942,7 +2948,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B68" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -2950,18 +2956,18 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c t="s" r="K68" s="10">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c t="s" r="L68" s="8">
         <v>139</v>
       </c>
       <c t="s" r="M68" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -2977,7 +2983,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -2985,10 +2991,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L69" s="8">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c t="s" r="M69" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -2996,7 +3002,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B70" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -3004,7 +3010,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3012,7 +3018,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L70" s="8">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c t="s" r="M70" s="11">
         <v>14</v>
@@ -3023,7 +3029,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B71" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -3031,18 +3037,18 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c t="s" r="K71" s="10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c t="s" r="L71" s="8">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c t="s" r="M71" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3050,7 +3056,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B72" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -3058,18 +3064,18 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c t="s" r="K72" s="10">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c t="s" r="L72" s="8">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c t="s" r="M72" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3077,7 +3083,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B73" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -3085,7 +3091,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3093,10 +3099,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L73" s="8">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c t="s" r="M73" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3120,7 +3126,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L74" s="8">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c t="s" r="M74" s="11">
         <v>16</v>
@@ -3131,7 +3137,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B75" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -3139,7 +3145,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3147,7 +3153,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L75" s="8">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c t="s" r="M75" s="11">
         <v>16</v>
@@ -3158,7 +3164,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B76" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -3166,7 +3172,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3174,10 +3180,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L76" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="M76" s="11">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3185,7 +3191,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B77" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -3193,7 +3199,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3201,10 +3207,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L77" s="8">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c t="s" r="M77" s="11">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3212,7 +3218,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B78" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -3220,7 +3226,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3228,10 +3234,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L78" s="8">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c t="s" r="M78" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3239,7 +3245,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B79" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -3247,7 +3253,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3255,10 +3261,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L79" s="8">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c t="s" r="M79" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3266,7 +3272,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B80" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -3274,7 +3280,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3282,7 +3288,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L80" s="8">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c t="s" r="M80" s="11">
         <v>16</v>
@@ -3293,7 +3299,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B81" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -3301,7 +3307,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3309,10 +3315,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L81" s="8">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c t="s" r="M81" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3320,7 +3326,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B82" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -3328,7 +3334,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3336,10 +3342,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L82" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="M82" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3347,7 +3353,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B83" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -3355,7 +3361,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3363,7 +3369,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L83" s="8">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c t="s" r="M83" s="11">
         <v>16</v>
@@ -3374,7 +3380,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B84" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -3382,7 +3388,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3390,10 +3396,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L84" s="8">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c t="s" r="M84" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3409,7 +3415,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3417,7 +3423,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L85" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="M85" s="11">
         <v>14</v>
@@ -3428,7 +3434,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B86" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3436,7 +3442,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3444,10 +3450,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L86" s="8">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c t="s" r="M86" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3455,7 +3461,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B87" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -3463,7 +3469,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -3471,7 +3477,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L87" s="8">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c t="s" r="M87" s="11">
         <v>16</v>
@@ -3490,7 +3496,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -3498,10 +3504,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L88" s="8">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c t="s" r="M88" s="11">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -3517,7 +3523,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -3525,10 +3531,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L89" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="M89" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -3536,7 +3542,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B90" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -3544,7 +3550,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -3555,7 +3561,7 @@
         <v>177</v>
       </c>
       <c t="s" r="M90" s="11">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -3606,10 +3612,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L92" s="8">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c t="s" r="M92" s="11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -3617,7 +3623,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B93" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -3625,7 +3631,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -3633,10 +3639,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L93" s="8">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c t="s" r="M93" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -3652,7 +3658,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -3684,7 +3690,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c t="s" r="K95" s="10">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c t="s" r="L95" s="8">
         <v>186</v>
@@ -3706,7 +3712,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -3714,7 +3720,7 @@
         <v>23</v>
       </c>
       <c t="s" r="L96" s="8">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c t="s" r="M96" s="11">
         <v>14</v>
@@ -3725,7 +3731,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B97" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -3733,7 +3739,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -3768,7 +3774,7 @@
         <v>23</v>
       </c>
       <c t="s" r="L98" s="8">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c t="s" r="M98" s="11">
         <v>14</v>
@@ -3779,7 +3785,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B99" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -3787,7 +3793,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -3795,7 +3801,7 @@
         <v>23</v>
       </c>
       <c t="s" r="L99" s="8">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c t="s" r="M99" s="11">
         <v>14</v>
@@ -3806,7 +3812,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B100" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -3814,7 +3820,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -3822,10 +3828,10 @@
         <v>23</v>
       </c>
       <c t="s" r="L100" s="8">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c t="s" r="M100" s="11">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -3833,7 +3839,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B101" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -3841,7 +3847,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -3852,7 +3858,7 @@
         <v>198</v>
       </c>
       <c t="s" r="M101" s="11">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3868,7 +3874,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -3876,7 +3882,7 @@
         <v>23</v>
       </c>
       <c t="s" r="L102" s="8">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c t="s" r="M102" s="11">
         <v>14</v>
@@ -3895,7 +3901,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -3903,7 +3909,7 @@
         <v>23</v>
       </c>
       <c t="s" r="L103" s="8">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c t="s" r="M103" s="11">
         <v>14</v>
@@ -3914,7 +3920,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B104" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -3922,7 +3928,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -3930,7 +3936,7 @@
         <v>23</v>
       </c>
       <c t="s" r="L104" s="8">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c t="s" r="M104" s="11">
         <v>14</v>
@@ -3941,7 +3947,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B105" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -3949,7 +3955,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -3957,7 +3963,7 @@
         <v>23</v>
       </c>
       <c t="s" r="L105" s="8">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c t="s" r="M105" s="11">
         <v>14</v>
@@ -3976,7 +3982,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -3984,10 +3990,10 @@
         <v>23</v>
       </c>
       <c t="s" r="L106" s="8">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c t="s" r="M106" s="11">
-        <v>206</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4011,10 +4017,10 @@
         <v>23</v>
       </c>
       <c t="s" r="L107" s="8">
+        <v>177</v>
+      </c>
+      <c t="s" r="M107" s="11">
         <v>208</v>
-      </c>
-      <c t="s" r="M107" s="11">
-        <v>206</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4030,7 +4036,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4038,10 +4044,10 @@
         <v>23</v>
       </c>
       <c t="s" r="L108" s="8">
+        <v>210</v>
+      </c>
+      <c t="s" r="M108" s="11">
         <v>208</v>
-      </c>
-      <c t="s" r="M108" s="11">
-        <v>11</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4057,7 +4063,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4065,10 +4071,10 @@
         <v>23</v>
       </c>
       <c t="s" r="L109" s="8">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c t="s" r="M109" s="11">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4076,7 +4082,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B110" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -4084,7 +4090,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4092,7 +4098,7 @@
         <v>23</v>
       </c>
       <c t="s" r="L110" s="8">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c t="s" r="M110" s="11">
         <v>14</v>
@@ -4103,7 +4109,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B111" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -4111,7 +4117,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4119,7 +4125,7 @@
         <v>23</v>
       </c>
       <c t="s" r="L111" s="8">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c t="s" r="M111" s="11">
         <v>14</v>
@@ -4130,7 +4136,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B112" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -4138,7 +4144,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -4165,7 +4171,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -4184,7 +4190,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B114" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -4200,7 +4206,7 @@
         <v>23</v>
       </c>
       <c t="s" r="L114" s="8">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c t="s" r="M114" s="11">
         <v>14</v>
@@ -4219,7 +4225,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -4227,10 +4233,10 @@
         <v>23</v>
       </c>
       <c t="s" r="L115" s="8">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c t="s" r="M115" s="11">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -4254,7 +4260,7 @@
         <v>23</v>
       </c>
       <c t="s" r="L116" s="8">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c t="s" r="M116" s="11">
         <v>45</v>
@@ -4273,7 +4279,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -4281,10 +4287,10 @@
         <v>23</v>
       </c>
       <c t="s" r="L117" s="8">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c t="s" r="M117" s="11">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -4292,7 +4298,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B118" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -4300,7 +4306,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -4308,35 +4314,62 @@
         <v>23</v>
       </c>
       <c t="s" r="L118" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="M118" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="12">
-        <v>227</v>
-      </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c t="s" r="F119" s="13">
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c t="s" r="B119" s="8">
         <v>228</v>
       </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="14"/>
-      <c t="s" r="I119" s="15">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>11</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c t="s" r="K119" s="10">
+        <v>23</v>
+      </c>
+      <c t="s" r="L119" s="8">
+        <v>109</v>
+      </c>
+      <c t="s" r="M119" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="12">
         <v>229</v>
       </c>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c t="s" r="F120" s="13">
+        <v>230</v>
+      </c>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14"/>
+      <c t="s" r="I120" s="15">
+        <v>231</v>
+      </c>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="234">
+  <mergeCells count="236">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -4568,9 +4601,11 @@
     <mergeCell ref="H117:J117"/>
     <mergeCell ref="B118:G118"/>
     <mergeCell ref="H118:J118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="I119:M119"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="I120:M120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
